--- a/4-bonus/correlation-significance.xlsx
+++ b/4-bonus/correlation-significance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intermediate-stats\4-bonus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AA0504-0AE6-4DD7-BABA-4CA1D9379FBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9013E168-800B-42A5-B9BB-5A07B05FE05E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="13373" xr2:uid="{0059BE41-D7BD-49CF-A6A3-546C812FE9FC}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35"/>
